--- a/dados_hackathon_veiculos.xlsx
+++ b/dados_hackathon_veiculos.xlsx
@@ -471,7 +471,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>07:40:29</t>
+          <t>07:42:58</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -481,7 +481,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Distante de Ambos</t>
+          <t>Próximo Estacionamento #1</t>
         </is>
       </c>
     </row>
@@ -496,7 +496,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>07:49:46</t>
+          <t>08:21:38</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -521,17 +521,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>08:57:53</t>
+          <t>08:16:43</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Carro</t>
+          <t>Moto</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Próximo Estacionamento #1</t>
+          <t>Distante de Ambos</t>
         </is>
       </c>
     </row>
@@ -546,17 +546,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>08:18:25</t>
+          <t>08:21:23</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Moto</t>
+          <t>Carro</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Próximo Estacionamento #1</t>
+          <t>Próximo Estacionamento #2</t>
         </is>
       </c>
     </row>
@@ -571,12 +571,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>08:39:28</t>
+          <t>08:25:07</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>PCD/Especial</t>
+          <t>Carro</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -596,7 +596,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>08:45:03</t>
+          <t>08:17:55</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -606,7 +606,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Próximo Estacionamento #1</t>
+          <t>Próximo Estacionamento #2</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>08:49:31</t>
+          <t>08:06:32</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -646,12 +646,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>08:01:18</t>
+          <t>08:06:14</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Carro</t>
+          <t>Elétrico</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>07:57:31</t>
+          <t>08:11:06</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -696,17 +696,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>07:55:25</t>
+          <t>07:54:20</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Moto</t>
+          <t>Carro</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Distante de Ambos</t>
+          <t>Próximo Estacionamento #1</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>08:26:05</t>
+          <t>08:23:40</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -731,7 +731,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Próximo Estacionamento #1</t>
+          <t>Próximo Estacionamento #2</t>
         </is>
       </c>
     </row>
@@ -746,7 +746,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>07:53:26</t>
+          <t>07:49:02</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -756,7 +756,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Próximo Estacionamento #1</t>
+          <t>Distante de Ambos</t>
         </is>
       </c>
     </row>
@@ -771,7 +771,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>07:31:50</t>
+          <t>07:30:45</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -781,7 +781,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Próximo Estacionamento #2</t>
+          <t>Próximo Estacionamento #1</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>08:29:55</t>
+          <t>08:40:27</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -806,7 +806,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Próximo Estacionamento #1</t>
+          <t>Distante de Ambos</t>
         </is>
       </c>
     </row>
@@ -821,17 +821,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>08:13:18</t>
+          <t>07:36:11</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Carro</t>
+          <t>PCD/Especial</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Próximo Estacionamento #1</t>
+          <t>Próximo Estacionamento #2</t>
         </is>
       </c>
     </row>
@@ -846,17 +846,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>08:01:08</t>
+          <t>08:52:57</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Carro</t>
+          <t>Elétrico</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Próximo Estacionamento #1</t>
+          <t>Próximo Estacionamento #2</t>
         </is>
       </c>
     </row>
@@ -871,17 +871,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>08:13:56</t>
+          <t>07:45:46</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Carro</t>
+          <t>Elétrico</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Próximo Estacionamento #2</t>
+          <t>Distante de Ambos</t>
         </is>
       </c>
     </row>
@@ -896,7 +896,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>08:43:38</t>
+          <t>08:12:35</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -921,7 +921,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>07:57:55</t>
+          <t>08:26:36</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -931,7 +931,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Distante de Ambos</t>
+          <t>Próximo Estacionamento #1</t>
         </is>
       </c>
     </row>
@@ -946,7 +946,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>07:40:58</t>
+          <t>07:57:29</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>08:26:35</t>
+          <t>08:47:03</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -981,7 +981,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Próximo Estacionamento #2</t>
+          <t>Distante de Ambos</t>
         </is>
       </c>
     </row>
@@ -996,7 +996,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>08:20:31</t>
+          <t>07:39:50</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1021,12 +1021,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>07:30:57</t>
+          <t>08:03:52</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Elétrico</t>
+          <t>Carro</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1046,7 +1046,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>07:46:01</t>
+          <t>07:31:34</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1071,17 +1071,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>07:50:12</t>
+          <t>08:18:40</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Carro</t>
+          <t>Moto</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Próximo Estacionamento #2</t>
+          <t>Próximo Estacionamento #1</t>
         </is>
       </c>
     </row>
@@ -1096,12 +1096,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>08:03:20</t>
+          <t>07:32:33</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Carro</t>
+          <t>PCD/Especial</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>08:16:33</t>
+          <t>07:47:40</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Próximo Estacionamento #2</t>
+          <t>Próximo Estacionamento #1</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1146,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>08:28:23</t>
+          <t>08:01:23</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1156,7 +1156,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Próximo Estacionamento #2</t>
+          <t>Próximo Estacionamento #1</t>
         </is>
       </c>
     </row>
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>08:41:57</t>
+          <t>07:57:02</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1181,7 +1181,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Distante de Ambos</t>
+          <t>Próximo Estacionamento #1</t>
         </is>
       </c>
     </row>
@@ -1196,7 +1196,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>07:48:33</t>
+          <t>07:49:18</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1206,7 +1206,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Distante de Ambos</t>
+          <t>Próximo Estacionamento #1</t>
         </is>
       </c>
     </row>
@@ -1221,12 +1221,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>07:33:04</t>
+          <t>08:05:41</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Moto</t>
+          <t>Carro</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1246,17 +1246,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>07:38:31</t>
+          <t>08:07:59</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Carro</t>
+          <t>PCD/Especial</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Próximo Estacionamento #1</t>
+          <t>Distante de Ambos</t>
         </is>
       </c>
     </row>
@@ -1271,12 +1271,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>08:57:15</t>
+          <t>07:35:58</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Moto</t>
+          <t>Carro</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1296,7 +1296,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>07:50:46</t>
+          <t>07:53:11</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>08:29:51</t>
+          <t>08:37:37</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1346,17 +1346,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>07:41:30</t>
+          <t>07:59:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>PCD/Especial</t>
+          <t>Carro</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Próximo Estacionamento #1</t>
+          <t>Próximo Estacionamento #2</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>07:48:34</t>
+          <t>08:28:46</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Próximo Estacionamento #1</t>
+          <t>Próximo Estacionamento #2</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>08:12:57</t>
+          <t>08:34:59</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1406,7 +1406,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Próximo Estacionamento #2</t>
+          <t>Próximo Estacionamento #1</t>
         </is>
       </c>
     </row>
@@ -1421,17 +1421,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>08:22:53</t>
+          <t>07:35:16</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Elétrico</t>
+          <t>Carro</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Próximo Estacionamento #2</t>
+          <t>Próximo Estacionamento #1</t>
         </is>
       </c>
     </row>
@@ -1446,7 +1446,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>08:14:01</t>
+          <t>08:34:48</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1471,12 +1471,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>07:46:44</t>
+          <t>08:00:02</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Carro</t>
+          <t>PCD/Especial</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>07:37:58</t>
+          <t>07:50:47</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Próximo Estacionamento #1</t>
+          <t>Próximo Estacionamento #2</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>08:34:54</t>
+          <t>07:58:27</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1546,7 +1546,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>08:18:10</t>
+          <t>08:47:58</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1556,7 +1556,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Distante de Ambos</t>
+          <t>Próximo Estacionamento #1</t>
         </is>
       </c>
     </row>
@@ -1571,12 +1571,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>08:54:56</t>
+          <t>07:30:49</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Elétrico</t>
+          <t>PCD/Especial</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1596,17 +1596,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>08:20:53</t>
+          <t>08:21:02</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>PCD/Especial</t>
+          <t>Carro</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Próximo Estacionamento #1</t>
+          <t>Próximo Estacionamento #2</t>
         </is>
       </c>
     </row>
@@ -1621,12 +1621,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>08:37:30</t>
+          <t>08:55:01</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Carro</t>
+          <t>PCD/Especial</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1646,7 +1646,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>08:14:07</t>
+          <t>08:38:43</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>08:19:18</t>
+          <t>08:14:16</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1696,7 +1696,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>08:55:35</t>
+          <t>07:34:47</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1706,7 +1706,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Próximo Estacionamento #2</t>
+          <t>Próximo Estacionamento #1</t>
         </is>
       </c>
     </row>
@@ -1721,12 +1721,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>08:22:23</t>
+          <t>08:52:45</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Moto</t>
+          <t>Carro</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1746,7 +1746,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>08:04:12</t>
+          <t>08:01:28</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1771,7 +1771,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>08:57:03</t>
+          <t>08:47:46</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1781,7 +1781,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Próximo Estacionamento #1</t>
+          <t>Distante de Ambos</t>
         </is>
       </c>
     </row>
@@ -1796,17 +1796,17 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>07:59:39</t>
+          <t>07:40:33</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Carro</t>
+          <t>Elétrico</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Próximo Estacionamento #1</t>
+          <t>Próximo Estacionamento #2</t>
         </is>
       </c>
     </row>
@@ -1821,7 +1821,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>08:48:23</t>
+          <t>07:36:44</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Próximo Estacionamento #1</t>
+          <t>Distante de Ambos</t>
         </is>
       </c>
     </row>
@@ -1846,12 +1846,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>07:35:09</t>
+          <t>08:36:39</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>PCD/Especial</t>
+          <t>Carro</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -1871,17 +1871,17 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>07:33:50</t>
+          <t>08:05:18</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Carro</t>
+          <t>Elétrico</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Distante de Ambos</t>
+          <t>Próximo Estacionamento #1</t>
         </is>
       </c>
     </row>
@@ -1896,7 +1896,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>08:01:51</t>
+          <t>07:32:06</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1906,7 +1906,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Próximo Estacionamento #2</t>
+          <t>Próximo Estacionamento #1</t>
         </is>
       </c>
     </row>
@@ -1921,7 +1921,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>07:37:51</t>
+          <t>08:34:17</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1946,17 +1946,17 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>08:22:18</t>
+          <t>08:47:41</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Carro</t>
+          <t>Moto</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Próximo Estacionamento #1</t>
+          <t>Próximo Estacionamento #2</t>
         </is>
       </c>
     </row>
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>08:09:43</t>
+          <t>08:01:46</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1996,12 +1996,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>07:30:34</t>
+          <t>08:05:59</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Moto</t>
+          <t>Carro</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>07:31:48</t>
+          <t>08:44:45</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2031,7 +2031,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Distante de Ambos</t>
+          <t>Próximo Estacionamento #2</t>
         </is>
       </c>
     </row>
@@ -2046,7 +2046,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>08:20:59</t>
+          <t>08:44:23</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2071,7 +2071,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>08:54:35</t>
+          <t>08:08:21</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2096,7 +2096,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>07:59:43</t>
+          <t>07:43:05</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2106,7 +2106,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Próximo Estacionamento #2</t>
+          <t>Próximo Estacionamento #1</t>
         </is>
       </c>
     </row>
@@ -2121,7 +2121,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>07:33:41</t>
+          <t>07:45:08</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2146,12 +2146,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>07:46:03</t>
+          <t>08:26:23</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>PCD/Especial</t>
+          <t>Elétrico</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2171,12 +2171,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>08:45:16</t>
+          <t>08:48:50</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Elétrico</t>
+          <t>Carro</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2196,7 +2196,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>07:35:49</t>
+          <t>08:54:26</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2221,17 +2221,17 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>07:43:31</t>
+          <t>08:39:36</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Elétrico</t>
+          <t>PCD/Especial</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Próximo Estacionamento #1</t>
+          <t>Distante de Ambos</t>
         </is>
       </c>
     </row>
@@ -2246,7 +2246,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>07:37:45</t>
+          <t>08:11:44</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2271,17 +2271,17 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>08:37:53</t>
+          <t>08:06:15</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Carro</t>
+          <t>PCD/Especial</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Próximo Estacionamento #2</t>
+          <t>Próximo Estacionamento #1</t>
         </is>
       </c>
     </row>
@@ -2296,17 +2296,17 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>07:58:44</t>
+          <t>07:41:36</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>PCD/Especial</t>
+          <t>Carro</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Próximo Estacionamento #1</t>
+          <t>Próximo Estacionamento #2</t>
         </is>
       </c>
     </row>
@@ -2321,17 +2321,17 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>08:22:11</t>
+          <t>08:43:22</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Moto</t>
+          <t>Carro</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Próximo Estacionamento #1</t>
+          <t>Próximo Estacionamento #2</t>
         </is>
       </c>
     </row>
@@ -2346,12 +2346,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>07:42:45</t>
+          <t>07:31:25</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Carro</t>
+          <t>Elétrico</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -2371,7 +2371,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>08:32:44</t>
+          <t>07:48:23</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2381,7 +2381,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Distante de Ambos</t>
+          <t>Próximo Estacionamento #1</t>
         </is>
       </c>
     </row>
@@ -2396,7 +2396,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>08:34:04</t>
+          <t>07:36:04</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2406,7 +2406,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Próximo Estacionamento #2</t>
+          <t>Próximo Estacionamento #1</t>
         </is>
       </c>
     </row>
@@ -2421,7 +2421,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>07:46:03</t>
+          <t>08:08:00</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2446,7 +2446,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>08:21:41</t>
+          <t>07:45:12</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2456,7 +2456,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Próximo Estacionamento #2</t>
+          <t>Próximo Estacionamento #1</t>
         </is>
       </c>
     </row>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>07:35:35</t>
+          <t>07:41:08</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2481,7 +2481,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Distante de Ambos</t>
+          <t>Próximo Estacionamento #1</t>
         </is>
       </c>
     </row>
@@ -2496,7 +2496,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>08:40:33</t>
+          <t>08:22:37</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Distante de Ambos</t>
+          <t>Próximo Estacionamento #1</t>
         </is>
       </c>
     </row>
@@ -2521,7 +2521,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>08:54:18</t>
+          <t>08:31:20</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2546,7 +2546,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>07:51:23</t>
+          <t>08:45:11</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2571,17 +2571,17 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>08:57:02</t>
+          <t>08:28:52</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Carro</t>
+          <t>Moto</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Próximo Estacionamento #2</t>
+          <t>Próximo Estacionamento #1</t>
         </is>
       </c>
     </row>
@@ -2596,17 +2596,17 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>08:05:27</t>
+          <t>07:59:29</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Moto</t>
+          <t>Carro</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Próximo Estacionamento #2</t>
+          <t>Próximo Estacionamento #1</t>
         </is>
       </c>
     </row>
@@ -2621,7 +2621,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>08:54:57</t>
+          <t>08:46:21</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Próximo Estacionamento #1</t>
+          <t>Próximo Estacionamento #2</t>
         </is>
       </c>
     </row>
@@ -2646,7 +2646,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>08:10:47</t>
+          <t>08:07:14</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2671,12 +2671,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>08:38:57</t>
+          <t>08:03:27</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Moto</t>
+          <t>Carro</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -2696,7 +2696,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>08:44:16</t>
+          <t>08:33:08</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2721,12 +2721,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>08:45:26</t>
+          <t>07:41:42</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Carro</t>
+          <t>Moto</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -2746,7 +2746,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>08:06:10</t>
+          <t>08:16:41</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2756,7 +2756,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Próximo Estacionamento #1</t>
+          <t>Distante de Ambos</t>
         </is>
       </c>
     </row>
@@ -2771,17 +2771,17 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>08:26:49</t>
+          <t>08:38:04</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Carro</t>
+          <t>Moto</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Próximo Estacionamento #2</t>
+          <t>Distante de Ambos</t>
         </is>
       </c>
     </row>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>08:34:04</t>
+          <t>08:36:33</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2806,7 +2806,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Próximo Estacionamento #2</t>
+          <t>Próximo Estacionamento #1</t>
         </is>
       </c>
     </row>
@@ -2821,7 +2821,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>07:53:17</t>
+          <t>07:37:23</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2831,7 +2831,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Próximo Estacionamento #2</t>
+          <t>Próximo Estacionamento #1</t>
         </is>
       </c>
     </row>
@@ -2846,7 +2846,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>08:05:42</t>
+          <t>07:42:26</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2871,12 +2871,12 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>08:10:36</t>
+          <t>07:49:30</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>PCD/Especial</t>
+          <t>Carro</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -2896,17 +2896,17 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>07:51:06</t>
+          <t>08:50:46</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Carro</t>
+          <t>Moto</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Distante de Ambos</t>
+          <t>Próximo Estacionamento #2</t>
         </is>
       </c>
     </row>
@@ -2921,12 +2921,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>08:48:19</t>
+          <t>08:41:25</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Carro</t>
+          <t>Elétrico</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -2946,17 +2946,17 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>07:40:47</t>
+          <t>07:45:51</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Carro</t>
+          <t>PCD/Especial</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Próximo Estacionamento #1</t>
+          <t>Distante de Ambos</t>
         </is>
       </c>
     </row>
@@ -2971,17 +2971,17 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>07:57:52</t>
+          <t>08:41:42</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Carro</t>
+          <t>Moto</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Distante de Ambos</t>
+          <t>Próximo Estacionamento #2</t>
         </is>
       </c>
     </row>
@@ -2996,7 +2996,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>08:52:30</t>
+          <t>08:07:17</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3006,7 +3006,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Próximo Estacionamento #2</t>
+          <t>Próximo Estacionamento #1</t>
         </is>
       </c>
     </row>
@@ -3021,12 +3021,12 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>08:57:59</t>
+          <t>08:08:21</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>PCD/Especial</t>
+          <t>Carro</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -3046,7 +3046,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>07:40:06</t>
+          <t>08:07:07</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3071,17 +3071,17 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>08:36:04</t>
+          <t>08:08:27</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>PCD/Especial</t>
+          <t>Carro</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Próximo Estacionamento #1</t>
+          <t>Próximo Estacionamento #2</t>
         </is>
       </c>
     </row>
@@ -3096,7 +3096,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>08:11:11</t>
+          <t>07:54:30</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3121,7 +3121,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>08:40:09</t>
+          <t>08:15:04</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3146,17 +3146,17 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>07:40:58</t>
+          <t>08:13:37</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Carro</t>
+          <t>Moto</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Próximo Estacionamento #1</t>
+          <t>Próximo Estacionamento #2</t>
         </is>
       </c>
     </row>
@@ -3171,7 +3171,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>08:15:27</t>
+          <t>08:10:32</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3181,7 +3181,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Próximo Estacionamento #2</t>
+          <t>Próximo Estacionamento #1</t>
         </is>
       </c>
     </row>
@@ -3196,7 +3196,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>07:41:33</t>
+          <t>07:52:43</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3221,7 +3221,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>08:13:25</t>
+          <t>08:45:19</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3246,7 +3246,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>08:41:57</t>
+          <t>08:55:04</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3271,7 +3271,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>07:34:26</t>
+          <t>08:22:02</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3281,7 +3281,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Próximo Estacionamento #2</t>
+          <t>Próximo Estacionamento #1</t>
         </is>
       </c>
     </row>
@@ -3296,7 +3296,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>08:37:52</t>
+          <t>08:14:15</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3321,7 +3321,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>08:45:51</t>
+          <t>08:46:10</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3331,7 +3331,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Distante de Ambos</t>
+          <t>Próximo Estacionamento #1</t>
         </is>
       </c>
     </row>
@@ -3346,12 +3346,12 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>07:38:13</t>
+          <t>08:47:48</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Carro</t>
+          <t>PCD/Especial</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -3371,7 +3371,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>08:32:57</t>
+          <t>08:08:12</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3396,7 +3396,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>08:13:00</t>
+          <t>07:52:51</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3406,7 +3406,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Próximo Estacionamento #2</t>
+          <t>Próximo Estacionamento #1</t>
         </is>
       </c>
     </row>
@@ -3421,7 +3421,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>08:32:06</t>
+          <t>08:30:06</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3431,7 +3431,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Distante de Ambos</t>
+          <t>Próximo Estacionamento #2</t>
         </is>
       </c>
     </row>
@@ -3446,7 +3446,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>08:04:51</t>
+          <t>08:53:29</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3456,7 +3456,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Distante de Ambos</t>
+          <t>Próximo Estacionamento #1</t>
         </is>
       </c>
     </row>
@@ -3471,7 +3471,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>07:59:18</t>
+          <t>08:50:19</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Próximo Estacionamento #2</t>
+          <t>Próximo Estacionamento #1</t>
         </is>
       </c>
     </row>
@@ -3496,7 +3496,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>07:54:44</t>
+          <t>08:20:43</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3521,17 +3521,17 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>08:53:30</t>
+          <t>08:29:04</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>PCD/Especial</t>
+          <t>Carro</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Próximo Estacionamento #1</t>
+          <t>Distante de Ambos</t>
         </is>
       </c>
     </row>
@@ -3546,7 +3546,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>08:51:08</t>
+          <t>08:04:51</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3571,7 +3571,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>07:45:36</t>
+          <t>08:55:08</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3581,7 +3581,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Próximo Estacionamento #1</t>
+          <t>Próximo Estacionamento #2</t>
         </is>
       </c>
     </row>
@@ -3596,7 +3596,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>08:06:31</t>
+          <t>08:42:25</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3606,7 +3606,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Próximo Estacionamento #1</t>
+          <t>Próximo Estacionamento #2</t>
         </is>
       </c>
     </row>
@@ -3621,17 +3621,17 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>08:48:08</t>
+          <t>07:30:00</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Moto</t>
+          <t>Carro</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Próximo Estacionamento #2</t>
+          <t>Próximo Estacionamento #1</t>
         </is>
       </c>
     </row>
@@ -3646,17 +3646,17 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>08:04:11</t>
+          <t>07:59:22</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Moto</t>
+          <t>Carro</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Distante de Ambos</t>
+          <t>Próximo Estacionamento #1</t>
         </is>
       </c>
     </row>
@@ -3671,12 +3671,12 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>07:37:31</t>
+          <t>08:39:56</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Moto</t>
+          <t>Carro</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -3696,17 +3696,17 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>07:54:58</t>
+          <t>07:51:01</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Carro</t>
+          <t>Moto</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Próximo Estacionamento #2</t>
+          <t>Próximo Estacionamento #1</t>
         </is>
       </c>
     </row>
@@ -3721,7 +3721,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>08:50:38</t>
+          <t>08:01:21</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3731,7 +3731,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Próximo Estacionamento #1</t>
+          <t>Próximo Estacionamento #2</t>
         </is>
       </c>
     </row>
@@ -3746,7 +3746,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>07:33:34</t>
+          <t>08:03:10</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3756,7 +3756,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Distante de Ambos</t>
+          <t>Próximo Estacionamento #1</t>
         </is>
       </c>
     </row>
@@ -3771,7 +3771,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>07:49:47</t>
+          <t>07:45:40</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3796,7 +3796,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>08:40:06</t>
+          <t>08:13:22</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -3806,7 +3806,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Próximo Estacionamento #2</t>
+          <t>Próximo Estacionamento #1</t>
         </is>
       </c>
     </row>
@@ -3821,17 +3821,17 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>08:18:12</t>
+          <t>08:38:29</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Carro</t>
+          <t>Elétrico</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Próximo Estacionamento #1</t>
+          <t>Próximo Estacionamento #2</t>
         </is>
       </c>
     </row>
@@ -3846,7 +3846,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>08:24:14</t>
+          <t>08:01:08</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -3871,7 +3871,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>08:57:44</t>
+          <t>07:34:26</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -3881,7 +3881,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Próximo Estacionamento #1</t>
+          <t>Distante de Ambos</t>
         </is>
       </c>
     </row>
@@ -3896,7 +3896,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>07:37:31</t>
+          <t>07:45:23</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -3906,7 +3906,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Próximo Estacionamento #1</t>
+          <t>Distante de Ambos</t>
         </is>
       </c>
     </row>
@@ -3921,7 +3921,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>08:59:18</t>
+          <t>07:30:06</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -3931,7 +3931,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Próximo Estacionamento #1</t>
+          <t>Distante de Ambos</t>
         </is>
       </c>
     </row>
@@ -3946,7 +3946,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>07:31:58</t>
+          <t>07:44:15</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -3956,7 +3956,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Próximo Estacionamento #2</t>
+          <t>Próximo Estacionamento #1</t>
         </is>
       </c>
     </row>
@@ -3971,7 +3971,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>08:39:46</t>
+          <t>08:19:29</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -3981,7 +3981,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Próximo Estacionamento #1</t>
+          <t>Próximo Estacionamento #2</t>
         </is>
       </c>
     </row>
@@ -3996,7 +3996,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>08:36:48</t>
+          <t>08:44:52</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4006,7 +4006,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Próximo Estacionamento #2</t>
+          <t>Distante de Ambos</t>
         </is>
       </c>
     </row>
@@ -4021,12 +4021,12 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>08:48:43</t>
+          <t>08:23:48</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Moto</t>
+          <t>Carro</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -4046,7 +4046,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>08:11:42</t>
+          <t>07:51:35</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -4056,7 +4056,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Próximo Estacionamento #1</t>
+          <t>Próximo Estacionamento #2</t>
         </is>
       </c>
     </row>
@@ -4071,12 +4071,12 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>07:56:14</t>
+          <t>08:16:57</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>PCD/Especial</t>
+          <t>Moto</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -4096,7 +4096,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>08:12:05</t>
+          <t>08:40:30</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -4106,7 +4106,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Próximo Estacionamento #1</t>
+          <t>Próximo Estacionamento #2</t>
         </is>
       </c>
     </row>
@@ -4121,17 +4121,17 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>08:26:05</t>
+          <t>07:52:29</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Carro</t>
+          <t>PCD/Especial</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Próximo Estacionamento #2</t>
+          <t>Próximo Estacionamento #1</t>
         </is>
       </c>
     </row>
@@ -4146,7 +4146,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>08:57:28</t>
+          <t>07:42:34</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -4156,7 +4156,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Próximo Estacionamento #2</t>
+          <t>Próximo Estacionamento #1</t>
         </is>
       </c>
     </row>
@@ -4171,7 +4171,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>08:33:33</t>
+          <t>07:52:09</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4181,7 +4181,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Próximo Estacionamento #1</t>
+          <t>Distante de Ambos</t>
         </is>
       </c>
     </row>
@@ -4196,17 +4196,17 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>07:59:56</t>
+          <t>08:42:19</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Carro</t>
+          <t>Moto</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Próximo Estacionamento #1</t>
+          <t>Próximo Estacionamento #2</t>
         </is>
       </c>
     </row>
@@ -4221,7 +4221,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>08:42:11</t>
+          <t>08:06:24</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4246,7 +4246,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>08:31:55</t>
+          <t>08:57:44</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4256,7 +4256,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Distante de Ambos</t>
+          <t>Próximo Estacionamento #2</t>
         </is>
       </c>
     </row>
@@ -4271,17 +4271,17 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>07:45:50</t>
+          <t>08:34:51</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Moto</t>
+          <t>Carro</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Próximo Estacionamento #2</t>
+          <t>Próximo Estacionamento #1</t>
         </is>
       </c>
     </row>
@@ -4296,7 +4296,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>08:58:05</t>
+          <t>07:53:03</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -4321,12 +4321,12 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>08:09:42</t>
+          <t>07:42:29</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Elétrico</t>
+          <t>Carro</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -4346,17 +4346,17 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>08:48:57</t>
+          <t>08:29:08</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Elétrico</t>
+          <t>Carro</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Próximo Estacionamento #2</t>
+          <t>Distante de Ambos</t>
         </is>
       </c>
     </row>
@@ -4371,7 +4371,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>08:30:12</t>
+          <t>07:59:53</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -4396,7 +4396,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>08:46:59</t>
+          <t>08:38:13</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -4406,7 +4406,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Próximo Estacionamento #2</t>
+          <t>Próximo Estacionamento #1</t>
         </is>
       </c>
     </row>
@@ -4421,17 +4421,17 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>08:06:28</t>
+          <t>08:16:46</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Elétrico</t>
+          <t>Carro</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Próximo Estacionamento #1</t>
+          <t>Distante de Ambos</t>
         </is>
       </c>
     </row>
@@ -4446,7 +4446,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>07:56:57</t>
+          <t>08:53:13</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Próximo Estacionamento #1</t>
+          <t>Próximo Estacionamento #2</t>
         </is>
       </c>
     </row>
@@ -4471,17 +4471,17 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>07:56:53</t>
+          <t>07:54:40</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Moto</t>
+          <t>Carro</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Distante de Ambos</t>
+          <t>Próximo Estacionamento #1</t>
         </is>
       </c>
     </row>
@@ -4496,7 +4496,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>07:58:38</t>
+          <t>08:48:07</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -4521,7 +4521,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>08:17:05</t>
+          <t>08:30:01</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -4531,7 +4531,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Próximo Estacionamento #1</t>
+          <t>Próximo Estacionamento #2</t>
         </is>
       </c>
     </row>
@@ -4546,7 +4546,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>07:52:05</t>
+          <t>08:10:35</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -4571,7 +4571,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>07:46:41</t>
+          <t>07:52:43</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -4581,7 +4581,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Próximo Estacionamento #2</t>
+          <t>Próximo Estacionamento #1</t>
         </is>
       </c>
     </row>
@@ -4596,12 +4596,12 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>08:37:54</t>
+          <t>08:29:08</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Elétrico</t>
+          <t>Moto</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -4621,12 +4621,12 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>08:47:46</t>
+          <t>08:32:39</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Carro</t>
+          <t>Moto</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -4646,17 +4646,17 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>08:01:47</t>
+          <t>08:29:06</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Carro</t>
+          <t>Elétrico</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Próximo Estacionamento #1</t>
+          <t>Próximo Estacionamento #2</t>
         </is>
       </c>
     </row>
@@ -4671,7 +4671,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>08:14:37</t>
+          <t>07:48:39</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -4696,17 +4696,17 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>07:35:58</t>
+          <t>08:49:51</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Elétrico</t>
+          <t>Carro</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Distante de Ambos</t>
+          <t>Próximo Estacionamento #1</t>
         </is>
       </c>
     </row>
@@ -4721,7 +4721,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>08:36:54</t>
+          <t>08:58:01</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -4731,7 +4731,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Próximo Estacionamento #1</t>
+          <t>Próximo Estacionamento #2</t>
         </is>
       </c>
     </row>
@@ -4746,17 +4746,17 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>08:46:58</t>
+          <t>08:16:17</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Carro</t>
+          <t>Moto</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Próximo Estacionamento #1</t>
+          <t>Distante de Ambos</t>
         </is>
       </c>
     </row>
@@ -4771,17 +4771,17 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>07:54:04</t>
+          <t>07:57:07</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Moto</t>
+          <t>Carro</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Próximo Estacionamento #1</t>
+          <t>Próximo Estacionamento #2</t>
         </is>
       </c>
     </row>
@@ -4796,12 +4796,12 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>08:12:48</t>
+          <t>08:16:17</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Carro</t>
+          <t>Moto</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -4821,7 +4821,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>07:32:57</t>
+          <t>08:37:53</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -4831,7 +4831,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Próximo Estacionamento #1</t>
+          <t>Próximo Estacionamento #2</t>
         </is>
       </c>
     </row>
